--- a/tests/Gauges/tLists7_image.xlsx
+++ b/tests/Gauges/tLists7_image.xlsx
@@ -120,13 +120,11 @@
       <x:sz val="8"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
@@ -187,7 +185,6 @@
       <x:sz val="14"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
